--- a/ref/问卷调查.xlsx
+++ b/ref/问卷调查.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A99F02-3DFB-489A-A9F6-51410FD4458B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CD688F-BB52-4BA8-B388-AB6768A037E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -775,10 +775,10 @@
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.03</c:v>
@@ -2315,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2401,7 +2401,7 @@
         <v>9</v>
       </c>
       <c r="B43">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -2409,7 +2409,7 @@
         <v>10</v>
       </c>
       <c r="B44">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
